--- a/module_2/2.1. Тест-кейсы Автоматизация..xlsx
+++ b/module_2/2.1. Тест-кейсы Автоматизация..xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\git\autotests-in-python\module_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDEC74-65B8-463C-A1E1-48C0F0C8CD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>тест- кейс</t>
   </si>
@@ -51,53 +60,55 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Открыть страницу </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+      </rPr>
+      <t>https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+      </rPr>
+      <t>, нажать кнопку "Sing up" (Зарегистрироваться)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Открылась страница формы регистрации</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="&quot;Helvetica Neue&quot;"/>
+      </rPr>
+      <t>2. Ввести не валидный email: "</t>
+    </r>
+    <r>
+      <rPr>
         <u/>
-      </rPr>
-      <t>https://github.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
-      </rPr>
-      <t>, нажать кнопку "Sing up" (Зарегистрироваться)</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Открылась страница формы регистрации</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;Helvetica Neue&quot;"/>
       </rPr>
-      <t>2. Ввести не валидный email: "</t>
-    </r>
-    <r>
-      <rPr>
+      <t>skillboxtest.ru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>skillboxtest.ru</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;"/>
       </rPr>
       <t>" в поле “Введите адрес электронной почты”. Нажать кнопку "Продолжить"</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Ошибка: "Электроный адерс должен содеражть символ @"
-Слева от поля появляется красный крестик- индикатор того, что пароль не валидный. </t>
   </si>
   <si>
     <t>3. В поле "Создайте пароль" ввести пароль цифр- 1234567.
@@ -142,28 +153,28 @@
     <t>CH-001</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка на SQL инъекцию на старнице изменение данных профиля пользователя. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Предварительно пользователь должен быть зарегистрирован. </t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Открыть страницу </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>, нажать кнопку "Sing in" (Войти)</t>
@@ -227,28 +238,28 @@
     <t>Проверка адаптации верстки на странице- Создание нового проекта .</t>
   </si>
   <si>
-    <t>Проверка адаптации верстки с мобильного телефона iPhon X (375*812) - Создание нового проекта .</t>
-  </si>
-  <si>
     <t xml:space="preserve">Предварительно пользователь должен быть зарегистрирован и авторизован на сайте. </t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Войти на сайт </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve"> как зарегистрированный пользователь.</t>
@@ -301,20 +312,23 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Войти на сайт </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve"> как зарегистрированный пользователь.</t>
@@ -382,20 +396,23 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Войти на сайт </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve"> как зарегистрированный пользователь.</t>
@@ -449,20 +466,23 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Войти на сайт </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve"> как зарегистрированный пользователь.</t>
@@ -492,12 +512,6 @@
 6. Нажать кнопку "Следующий" </t>
   </si>
   <si>
-    <t>4. Ошибки:
-1. Имя учетной записи превышает допустимое количество символвов- 150. 
-2. Почта иммет не верный формат. Введите корректный адрес почты. 
-Кнопка "Следующий не активна.</t>
-  </si>
-  <si>
     <t xml:space="preserve">M-003 </t>
   </si>
   <si>
@@ -506,20 +520,23 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Войти на сайт </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve"> как зарегистрированный пользователь.</t>
@@ -560,25 +577,25 @@
     <t>Проверка полей формы блока платежной информации на странице: "Просмотрите заказ" при установки программы с Торговой площадки "GitHub"</t>
   </si>
   <si>
-    <t xml:space="preserve">Предварительно пользователь должен быть зарегистирован и авторизован на сайте. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve">1. Войти на сайт </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t>https://github.com/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="&quot;Helvetica Neue&quot;, Arial"/>
       </rPr>
       <t xml:space="preserve"> как зарегистрированный пользователь.</t>
@@ -631,18 +648,6 @@
 9. Кнопка "Сохранить".</t>
   </si>
   <si>
-    <t>6. На странице: "Просмотрите заказ" заполнить обязательные поля платежной информации значениями:
-1.Имя: Ekaterina
-2.Фамилия: Оставить не заполненным
-3. Адрес (абонентский ящик, название компании, к/о): Оставить не заполненным
-4. Адресная строка 2 (Квартира, люкс, блок):
-5. Город: Оставить не зполненным.
-6. Почтовый индекс: ввести символы: "Привет"
-7. Страна/регион: Poland
-8. Штат/провинция:
-9. Нажать кнопку "Сохранить"</t>
-  </si>
-  <si>
     <t>6. Ошибки в полях:
 2. Значение  Фамилия не может быть не заполненным.
 3. Значение Адрес не может быть не заполненным.
@@ -650,52 +655,108 @@
 6. Не верный формат заполнения. В поле можно ввести только цифры.
 Кнопка "Сохранить" не активна до валидного заполнения формы.</t>
   </si>
+  <si>
+    <t xml:space="preserve">2. Ошибка: "Электронный адрес должен содержать символ @"
+Слева от поля появляется красный крестик- индикатор того, что пароль не валидный. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка на SQL инъекцию на странице изменение данных профиля пользователя. </t>
+  </si>
+  <si>
+    <t>Проверка адаптации верстки с мобильного телефона iPhone X (375*812) - Создание нового проекта .</t>
+  </si>
+  <si>
+    <t>4. Ошибки:
+1. Имя учетной записи превышает допустимое количество символов- 150. 
+2. Почта имеет не верный формат. Введите корректный адрес почты. 
+Кнопка "Следующий не активна.</t>
+  </si>
+  <si>
+    <t>6. На странице: "Просмотрите заказ" заполнить обязательные поля платежной информации значениями:
+1.Имя: Ekaterina
+2.Фамилия: Оставить не заполненным
+3. Адрес (абонентский ящик, название компании, к/о): Оставить не заполненным
+4. Адресная строка 2 (Квартира, люкс, блок):
+5. Город: Оставить не заполненным.
+6. Почтовый индекс: ввести символы: "Привет"
+7. Страна/регион: Poland
+8. Штат/провинция:
+9. Нажать кнопку "Сохранить"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="&quot;Helvetica Neue&quot;, Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Helvetica Neue&quot;, Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
@@ -704,7 +765,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -732,136 +793,138 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1051,32 +1114,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A10:E112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="50.38"/>
-    <col customWidth="1" min="4" max="4" width="47.75"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10">
+    <row r="10" spans="1:5" ht="13.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="22.8">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -1085,1067 +1153,1067 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="13.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" ht="41.25" customHeight="1">
-      <c r="A15" s="10"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="41.25" customHeight="1">
+      <c r="A15" s="8"/>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="26.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="19" t="s">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="52.8">
+      <c r="A19" s="8"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="52.8">
+      <c r="A20" s="8"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="52.8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="66">
+      <c r="A22" s="8"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="39.6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="132">
+      <c r="A24" s="8"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.6">
       <c r="A26" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8"/>
+      <c r="C26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="22"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:5" ht="15.6">
+      <c r="A27" s="8"/>
       <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="8"/>
+      <c r="C27" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:5" ht="15.6">
+      <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="8"/>
+      <c r="C28" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:5" ht="15.6">
+      <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="26.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="79.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="21" t="s">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="158.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D34" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="10"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="21" t="s">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="132">
+      <c r="A35" s="8"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D35" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="13.2">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.6">
       <c r="A37" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="8"/>
+      <c r="C37" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="22"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:5" ht="15.6">
+      <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="8"/>
+      <c r="C38" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="22"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:5" ht="15.6">
+      <c r="A39" s="8"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="C39" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="22"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:5" ht="15.6">
+      <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="52.8">
+      <c r="A42" s="8"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="52.8">
+      <c r="A43" s="8"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="10"/>
-      <c r="B41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="10"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17" t="s">
+      <c r="D43" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="52.8">
+      <c r="A44" s="8"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="10"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="21" t="s">
+      <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="92.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="10"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="21" t="s">
+      <c r="D45" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="66">
+      <c r="A46" s="8"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="21" t="s">
+      <c r="D46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="13.2">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="8"/>
+      <c r="C48" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="22"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:5" ht="15.6">
+      <c r="A49" s="8"/>
       <c r="B49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="8"/>
+      <c r="C49" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="22"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:5" ht="15.6">
+      <c r="A50" s="8"/>
       <c r="B50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="8"/>
+      <c r="C50" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="22"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:5" ht="15.6">
+      <c r="A51" s="8"/>
       <c r="B51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="8"/>
+      <c r="C51" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="22"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="10"/>
-      <c r="B52" s="14" t="s">
+    <row r="52" spans="1:5" ht="13.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="10"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
+    <row r="53" spans="1:5" ht="26.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="145.19999999999999">
+      <c r="A54" s="8"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="158.4">
+      <c r="A55" s="8"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="10"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="21" t="s">
+      <c r="D55" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="118.8">
+      <c r="A56" s="8"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="10"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="21" t="s">
+      <c r="D56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="66">
+      <c r="A57" s="8"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="10"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="20" t="s">
+      <c r="D57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="10"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="13.2">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="15.6">
       <c r="A59" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="8"/>
+      <c r="C59" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="22"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:5" ht="15.6">
+      <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="8"/>
+      <c r="C60" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="22"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:5" ht="15.6">
+      <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="8"/>
+      <c r="C61" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="22"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:5" ht="15.6">
+      <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="8"/>
+      <c r="C62" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="22"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="10"/>
-      <c r="B63" s="14" t="s">
+    <row r="63" spans="1:5" ht="13.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="10"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17" t="s">
+    <row r="64" spans="1:5" ht="52.8">
+      <c r="A64" s="8"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="39.6">
+      <c r="A65" s="8"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="52.8">
+      <c r="A66" s="8"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="10"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="21" t="s">
+      <c r="D66" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="118.8">
+      <c r="A67" s="8"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="10"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="21" t="s">
+      <c r="D67" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="52.8">
+      <c r="A68" s="8"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="10"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="21" t="s">
+      <c r="D68" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="105.6">
+      <c r="A69" s="8"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="10"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="21" t="s">
+      <c r="D69" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="10"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="13.2">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="15.6">
       <c r="A71" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="8"/>
+      <c r="C71" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="22"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:5" ht="15.6">
+      <c r="A72" s="8"/>
       <c r="B72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="8"/>
+      <c r="C72" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="22"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:5" ht="15.6">
+      <c r="A73" s="8"/>
       <c r="B73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="8"/>
+      <c r="C73" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="22"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:5" ht="15.6">
+      <c r="A74" s="8"/>
       <c r="B74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D74" s="8"/>
+      <c r="C74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="22"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="10"/>
-      <c r="B75" s="14" t="s">
+    <row r="75" spans="1:5" ht="13.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="10"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17" t="s">
+    <row r="76" spans="1:5" ht="26.4">
+      <c r="A76" s="8"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="39.6">
+      <c r="A77" s="8"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="66">
+      <c r="A78" s="8"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="10"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="21" t="s">
+      <c r="D78" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="237.6">
+      <c r="A79" s="8"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="10"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="10"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="27"/>
-    </row>
-    <row r="80">
+      <c r="D79" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" ht="13.2">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="15.6">
       <c r="A81" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="8"/>
+      <c r="C81" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="22"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="10"/>
+    <row r="82" spans="1:5" ht="15.6">
+      <c r="A82" s="8"/>
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="8"/>
+      <c r="C82" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="22"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="10"/>
+    <row r="83" spans="1:5" ht="15.6">
+      <c r="A83" s="8"/>
       <c r="B83" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="8"/>
+      <c r="C83" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="22"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="10"/>
+    <row r="84" spans="1:5" ht="15.6">
+      <c r="A84" s="8"/>
       <c r="B84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="8"/>
+      <c r="C84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="22"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="10"/>
-      <c r="B85" s="14" t="s">
+    <row r="85" spans="1:5" ht="13.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="10"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17" t="s">
+    <row r="86" spans="1:5" ht="26.4">
+      <c r="A86" s="8"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" ht="105.6">
+      <c r="A87" s="8"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" ht="105.6">
+      <c r="A88" s="8"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="10"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="21" t="s">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" ht="39.6">
+      <c r="A89" s="8"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D89" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="10"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="10"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="13.2">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="15.6">
       <c r="A91" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="8"/>
+      <c r="C91" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="22"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="10"/>
+    <row r="92" spans="1:5" ht="15.6">
+      <c r="A92" s="8"/>
       <c r="B92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="8"/>
+      <c r="C92" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="22"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="10"/>
+    <row r="93" spans="1:5" ht="15.6">
+      <c r="A93" s="8"/>
       <c r="B93" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="8"/>
+      <c r="C93" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="22"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="10"/>
+    <row r="94" spans="1:5" ht="15.6">
+      <c r="A94" s="8"/>
       <c r="B94" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.2">
+      <c r="A95" s="8"/>
+      <c r="B95" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" ht="26.4">
+      <c r="A96" s="8"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" ht="79.2">
+      <c r="A97" s="8"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="145.19999999999999">
+      <c r="A98" s="8"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="10"/>
-      <c r="B95" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="10"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17" t="s">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="79.2">
+      <c r="A99" s="8"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="10"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="21" t="s">
+      <c r="D99" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="171.6">
+      <c r="A100" s="8"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="10"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="21" t="s">
+      <c r="D100" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" ht="171.6">
+      <c r="A101" s="8"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="10"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="10"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="10"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="27"/>
-    </row>
-    <row r="102">
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="1:5" ht="13.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="13.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="13.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="13.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="13.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="13.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="13.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="13.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="13.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="13.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" ht="13.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2154,26 +2222,10 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="B63:B69"/>
     <mergeCell ref="B85:B89"/>
@@ -2190,22 +2242,38 @@
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C18"/>
-    <hyperlink r:id="rId2" ref="C19"/>
-    <hyperlink r:id="rId3" ref="C31"/>
-    <hyperlink r:id="rId4" ref="C42"/>
-    <hyperlink r:id="rId5" ref="C53"/>
-    <hyperlink r:id="rId6" ref="C64"/>
-    <hyperlink r:id="rId7" ref="C76"/>
-    <hyperlink r:id="rId8" ref="C86"/>
-    <hyperlink r:id="rId9" ref="C96"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C53" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C64" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C76" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C86" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C96" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>